--- a/dadosProjeto.xlsx
+++ b/dadosProjeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 ano\2 semestre\CAL\Projeto\feup-cal-proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD5BB2B1-923E-4C43-B031-7FBB9926575B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E9193D-4EE6-4DB8-89DE-BAFB99B30043}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2191EC9-5E49-4047-8E7F-8FB4B450290D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
   <si>
     <t>Nodes</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Penafiel</t>
   </si>
   <si>
-    <t>sum</t>
-  </si>
-  <si>
     <t>Time(ms)</t>
   </si>
   <si>
@@ -79,6 +76,42 @@
   </si>
   <si>
     <t>PortoScc</t>
+  </si>
+  <si>
+    <t>PenafielScc:</t>
+  </si>
+  <si>
+    <t>MEDIA:</t>
+  </si>
+  <si>
+    <t>EspinhoScc:</t>
+  </si>
+  <si>
+    <t>Penafiel:</t>
+  </si>
+  <si>
+    <t>Espinho:</t>
+  </si>
+  <si>
+    <t>PortoScc:</t>
+  </si>
+  <si>
+    <t>Porto:</t>
+  </si>
+  <si>
+    <t>BFS:</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>MSDijkstra:</t>
+  </si>
+  <si>
+    <t>Media:</t>
+  </si>
+  <si>
+    <t>MSDijkstra</t>
   </si>
 </sst>
 </file>
@@ -120,12 +153,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -159,6 +191,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>DFS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -197,17 +254,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Folha1!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time(ms)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -234,42 +280,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$F$4:$F$7</c:f>
+              <c:f>Folha1!$E$14:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>8201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15046</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>21281</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>37032</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>55586</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>113147</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3677510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$G$4:$G$7</c:f>
+              <c:f>Folha1!$F$14:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>43.750999999999998</c:v>
+                  <c:v>2.7947799999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.620500000000007</c:v>
+                  <c:v>5.28911</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>313.28300000000002</c:v>
+                  <c:v>6.9728000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11109.9</c:v>
+                  <c:v>12.178000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.901299999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.7423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,7 +335,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E4F1-4B4A-A981-C00438A95BD4}"/>
+              <c16:uniqueId val="{00000000-57F6-4CDF-A7A2-A88314A5C11F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -289,11 +347,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1627247327"/>
-        <c:axId val="1627245247"/>
+        <c:axId val="1520419167"/>
+        <c:axId val="1520418751"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1627247327"/>
+        <c:axId val="1520419167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -313,6 +371,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>|V|+|E|</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -350,12 +463,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627245247"/>
+        <c:crossAx val="1520418751"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1627245247"/>
+        <c:axId val="1520418751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,6 +488,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Time(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -412,7 +580,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1627247327"/>
+        <c:crossAx val="1520419167"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -426,13 +594,1381 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Kosaraju</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.301436557071587E-2"/>
+          <c:y val="9.9227771805277101E-2"/>
+          <c:w val="0.86486351706036746"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21281</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$F$4:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8850600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6807499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.56696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.4968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.766950000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.122699999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFA6-442E-9465-B62E7ABF7B60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1643616367"/>
+        <c:axId val="1643616783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1643616367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>|V|+|E|</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1643616783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1643616783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Time(ms)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1643616367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>BFS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$L$43:$L$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21281</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$M$43:$M$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0870799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.85608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0934200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8831699999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.07222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.09581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A19-4D8A-A540-D13377E18D73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1644282767"/>
+        <c:axId val="1644286511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1644282767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>|V|+|E|</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1644286511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1644286511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Time(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1644282767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>MSDijkstra</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$L$55:$L$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21281</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$M$55:$M$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25.341719999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.0466</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.539459999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139.45509999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3879.8620000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3221.5520000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-976D-4B11-AC41-E9BFDBB9B569}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1431449711"/>
+        <c:axId val="1431448463"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1431449711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>|V|+|E|</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1431448463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1431448463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Time(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1431449711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -508,6 +2044,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1024,27 +2680,1575 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>154304</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>33410</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>469361</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>109610</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554076F0-0502-44A0-BB70-30543072BF40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8BE2EDE-C89B-4AA2-B6DF-F718B72A0C06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1057,6 +4261,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBA1C32-A1C0-468F-93D3-8D8D6019D7F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D75A23-5B19-462E-8B46-0EF5C6988837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C125C1AE-5861-434C-83B2-9232A43939B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1362,17 +4674,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6A995E-CD29-4310-804D-26025364E289}">
-  <dimension ref="B2:I20"/>
+  <dimension ref="A2:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:F20"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -1385,92 +4697,132 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" t="s">
         <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>10365</v>
+        <v>3964</v>
       </c>
       <c r="D4" s="1">
-        <v>10916</v>
-      </c>
-      <c r="F4" s="2">
-        <f>C4+D4</f>
-        <v>21281</v>
-      </c>
-      <c r="G4" s="3">
-        <v>43.750999999999998</v>
-      </c>
+        <v>4237</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E5" si="0">C4+D4</f>
+        <v>8201</v>
+      </c>
+      <c r="F4">
+        <v>4.8850600000000002</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>17772</v>
+        <v>7108</v>
       </c>
       <c r="D5" s="1">
-        <v>19260</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" ref="F5:F7" si="0">C5+D5</f>
-        <v>37032</v>
-      </c>
-      <c r="G5" s="3">
-        <v>82.620500000000007</v>
-      </c>
+        <v>7938</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>15046</v>
+      </c>
+      <c r="F5">
+        <v>8.6807499999999997</v>
+      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>53621</v>
+        <v>10365</v>
       </c>
       <c r="D6" s="1">
-        <v>59526</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>113147</v>
-      </c>
-      <c r="G6" s="3">
-        <v>313.28300000000002</v>
-      </c>
+        <v>10916</v>
+      </c>
+      <c r="E6">
+        <f>C6+D6</f>
+        <v>21281</v>
+      </c>
+      <c r="F6">
+        <v>11.56696</v>
+      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>1803214</v>
-      </c>
-      <c r="D7">
-        <v>1874296</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>3677510</v>
-      </c>
-      <c r="G7" s="3">
-        <v>11109.9</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>17772</v>
+      </c>
+      <c r="D7" s="1">
+        <v>19260</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E9" si="1">C7+D7</f>
+        <v>37032</v>
+      </c>
+      <c r="F7">
+        <v>22.4968</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>26098</v>
+      </c>
+      <c r="D8" s="1">
+        <v>29488</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>55586</v>
+      </c>
+      <c r="F8">
+        <v>36.766950000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>53621</v>
+      </c>
+      <c r="D9" s="1">
+        <v>59526</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>113147</v>
+      </c>
+      <c r="F9">
+        <v>77.122699999999995</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -1484,28 +4836,28 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>10365</v>
+        <v>3964</v>
       </c>
       <c r="D14" s="1">
-        <v>10916</v>
+        <v>4237</v>
       </c>
       <c r="E14">
-        <f>C14+D14</f>
-        <v>21281</v>
+        <f t="shared" ref="E14:E15" si="2">C14+D14</f>
+        <v>8201</v>
       </c>
       <c r="F14">
-        <v>10.261200000000001</v>
+        <v>2.7947799999999998</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -1513,92 +4865,92 @@
         <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>3964</v>
+        <v>7108</v>
       </c>
       <c r="D15" s="1">
-        <v>4237</v>
+        <v>7938</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E20" si="1">C15+D15</f>
-        <v>8201</v>
+        <f t="shared" si="2"/>
+        <v>15046</v>
       </c>
       <c r="F15">
-        <v>8.2736499999999999</v>
+        <v>5.28911</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10365</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10916</v>
+      </c>
+      <c r="E16">
+        <f>C16+D16</f>
+        <v>21281</v>
+      </c>
+      <c r="F16">
+        <v>6.9728000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>17772</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <v>19260</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
+      <c r="E17">
+        <f t="shared" ref="E17:E18" si="3">C17+D17</f>
         <v>37032</v>
       </c>
-      <c r="F16">
-        <v>18.1434</v>
+      <c r="F17">
+        <v>12.178000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
+    <row r="18" spans="1:10">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1">
-        <v>7108</v>
-      </c>
-      <c r="D17" s="1">
-        <v>7938</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>15046</v>
-      </c>
-      <c r="F17">
-        <v>10.463699999999999</v>
+      <c r="C18" s="1">
+        <v>26098</v>
+      </c>
+      <c r="D18" s="1">
+        <v>29488</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>55586</v>
+      </c>
+      <c r="F18">
+        <v>18.901299999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" t="s">
+    <row r="19" spans="1:10">
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>53621</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>59526</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
+      <c r="E19">
+        <f t="shared" ref="E19" si="4">C19+D19</f>
         <v>113147</v>
       </c>
-      <c r="F18">
-        <v>59.061700000000002</v>
+      <c r="F19">
+        <v>41.7423</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1">
-        <v>26098</v>
-      </c>
-      <c r="D19" s="1">
-        <v>29488</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>55586</v>
-      </c>
-      <c r="F19">
-        <v>27.712900000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="1:10">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -1609,11 +4961,898 @@
         <v>1874296</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E15:E20" si="5">C20+D20</f>
         <v>3677510</v>
       </c>
-      <c r="F20">
-        <v>2689.69</v>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24">
+        <v>4.9851000000000001</v>
+      </c>
+      <c r="C24">
+        <v>9.0083000000000002</v>
+      </c>
+      <c r="D24">
+        <v>12.929</v>
+      </c>
+      <c r="E24">
+        <v>22.928599999999999</v>
+      </c>
+      <c r="F24">
+        <v>38.964500000000001</v>
+      </c>
+      <c r="G24">
+        <v>77.263000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25">
+        <v>4.9859999999999998</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8.9657999999999998</v>
+      </c>
+      <c r="D25" s="1">
+        <v>11.000999999999999</v>
+      </c>
+      <c r="E25">
+        <v>21.943100000000001</v>
+      </c>
+      <c r="F25">
+        <v>41.858400000000003</v>
+      </c>
+      <c r="G25">
+        <v>79.674499999999995</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26">
+        <v>5.0115999999999996</v>
+      </c>
+      <c r="C26">
+        <v>10.0543</v>
+      </c>
+      <c r="D26">
+        <v>10.970700000000001</v>
+      </c>
+      <c r="E26">
+        <v>24.9605</v>
+      </c>
+      <c r="F26">
+        <v>37.8977</v>
+      </c>
+      <c r="G26">
+        <v>76.008700000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27">
+        <v>4.9867999999999997</v>
+      </c>
+      <c r="C27">
+        <v>9.0089000000000006</v>
+      </c>
+      <c r="D27">
+        <v>10.971</v>
+      </c>
+      <c r="E27">
+        <v>19.959499999999998</v>
+      </c>
+      <c r="F27">
+        <v>36.933199999999999</v>
+      </c>
+      <c r="G27">
+        <v>74.773099999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28">
+        <v>3.9893000000000001</v>
+      </c>
+      <c r="C28">
+        <v>9.9764999999999997</v>
+      </c>
+      <c r="D28">
+        <v>12.965999999999999</v>
+      </c>
+      <c r="E28">
+        <v>20.9466</v>
+      </c>
+      <c r="F28">
+        <v>36.901699999999998</v>
+      </c>
+      <c r="G28">
+        <v>79.378600000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29">
+        <v>4.9744000000000002</v>
+      </c>
+      <c r="C29">
+        <v>7.9875999999999996</v>
+      </c>
+      <c r="D29">
+        <v>10.972899999999999</v>
+      </c>
+      <c r="E29">
+        <v>22.938600000000001</v>
+      </c>
+      <c r="F29">
+        <v>36.469799999999999</v>
+      </c>
+      <c r="G29">
+        <v>77.791600000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30">
+        <v>4.9558</v>
+      </c>
+      <c r="C30">
+        <v>8.9446999999999992</v>
+      </c>
+      <c r="D30">
+        <v>11.970800000000001</v>
+      </c>
+      <c r="E30">
+        <v>22.497699999999998</v>
+      </c>
+      <c r="F30">
+        <v>34.417000000000002</v>
+      </c>
+      <c r="G30">
+        <v>78.775099999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31">
+        <v>4.9870999999999999</v>
+      </c>
+      <c r="C31">
+        <v>7.9481000000000002</v>
+      </c>
+      <c r="D31">
+        <v>11.977499999999999</v>
+      </c>
+      <c r="E31">
+        <v>19.9496</v>
+      </c>
+      <c r="F31">
+        <v>33.909500000000001</v>
+      </c>
+      <c r="G31">
+        <v>80.784000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32">
+        <v>4.9874999999999998</v>
+      </c>
+      <c r="C32">
+        <v>6.9459</v>
+      </c>
+      <c r="D32">
+        <v>10.970700000000001</v>
+      </c>
+      <c r="E32">
+        <v>25.905200000000001</v>
+      </c>
+      <c r="F32">
+        <v>36.408000000000001</v>
+      </c>
+      <c r="G32">
+        <v>73.772800000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="B33">
+        <v>4.9870000000000001</v>
+      </c>
+      <c r="C33">
+        <v>7.9673999999999996</v>
+      </c>
+      <c r="D33">
+        <v>10.94</v>
+      </c>
+      <c r="E33">
+        <v>22.938600000000001</v>
+      </c>
+      <c r="F33">
+        <v>33.909700000000001</v>
+      </c>
+      <c r="G33">
+        <v>73.005600000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <f>SUM(B24:B33)/10</f>
+        <v>4.8850599999999993</v>
+      </c>
+      <c r="C34">
+        <f>SUM(C24:C33)/10</f>
+        <v>8.6807499999999997</v>
+      </c>
+      <c r="D34">
+        <f>SUM(D24:D33)/10</f>
+        <v>11.56696</v>
+      </c>
+      <c r="E34">
+        <f>SUM(E24:E33)/10</f>
+        <v>22.4968</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F24:F33)/10</f>
+        <v>36.766949999999994</v>
+      </c>
+      <c r="G34">
+        <f>SUM(G24:G33)/10</f>
+        <v>77.12269999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="B38">
+        <v>2.9851000000000001</v>
+      </c>
+      <c r="C38">
+        <v>4.0209999999999999</v>
+      </c>
+      <c r="D38">
+        <v>3.9893000000000001</v>
+      </c>
+      <c r="E38">
+        <v>7.9790000000000001</v>
+      </c>
+      <c r="F38">
+        <v>14.992100000000001</v>
+      </c>
+      <c r="G38">
+        <v>25.923200000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="B39">
+        <v>1.9946999999999999</v>
+      </c>
+      <c r="C39">
+        <v>3.0023</v>
+      </c>
+      <c r="D39">
+        <v>3.9925000000000002</v>
+      </c>
+      <c r="E39">
+        <v>7.9066000000000001</v>
+      </c>
+      <c r="F39">
+        <v>14.951000000000001</v>
+      </c>
+      <c r="G39">
+        <v>24.9331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="B40">
+        <v>1.9775</v>
+      </c>
+      <c r="C40">
+        <v>5.0202</v>
+      </c>
+      <c r="D40">
+        <v>4.9865000000000004</v>
+      </c>
+      <c r="E40">
+        <v>7.9932999999999996</v>
+      </c>
+      <c r="F40">
+        <v>15.960800000000001</v>
+      </c>
+      <c r="G40">
+        <v>28.599699999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="B41">
+        <v>1.9955000000000001</v>
+      </c>
+      <c r="C41">
+        <v>4.0236000000000001</v>
+      </c>
+      <c r="D41">
+        <v>3.988</v>
+      </c>
+      <c r="E41">
+        <v>6.9776999999999996</v>
+      </c>
+      <c r="F41">
+        <v>13.957700000000001</v>
+      </c>
+      <c r="G41">
+        <v>25.933</v>
+      </c>
+      <c r="I41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="B42">
+        <v>1.9916</v>
+      </c>
+      <c r="C42">
+        <v>2.9910999999999999</v>
+      </c>
+      <c r="D42">
+        <v>3.9895</v>
+      </c>
+      <c r="E42">
+        <v>7.9846000000000004</v>
+      </c>
+      <c r="F42">
+        <v>13.959</v>
+      </c>
+      <c r="G42">
+        <v>26.9283</v>
+      </c>
+      <c r="I42" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="B43">
+        <v>1.9945999999999999</v>
+      </c>
+      <c r="C43">
+        <v>3.9691999999999998</v>
+      </c>
+      <c r="D43">
+        <v>4.0285000000000002</v>
+      </c>
+      <c r="E43">
+        <v>7.9805000000000001</v>
+      </c>
+      <c r="F43">
+        <v>16.988600000000002</v>
+      </c>
+      <c r="G43">
+        <v>23.905899999999999</v>
+      </c>
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="1">
+        <v>3964</v>
+      </c>
+      <c r="K43" s="1">
+        <v>4237</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ref="L43:L44" si="6">J43+K43</f>
+        <v>8201</v>
+      </c>
+      <c r="M43">
+        <v>2.0870799999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="B44">
+        <v>1.9945999999999999</v>
+      </c>
+      <c r="C44">
+        <v>3.5661</v>
+      </c>
+      <c r="D44">
+        <v>3.9906000000000001</v>
+      </c>
+      <c r="E44">
+        <v>7.9843999999999999</v>
+      </c>
+      <c r="F44">
+        <v>13.975099999999999</v>
+      </c>
+      <c r="G44">
+        <v>25.928699999999999</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="1">
+        <v>7108</v>
+      </c>
+      <c r="K44" s="1">
+        <v>7938</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>15046</v>
+      </c>
+      <c r="M44">
+        <v>3.85608</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="B45">
+        <v>1.9946999999999999</v>
+      </c>
+      <c r="C45">
+        <v>3.9889999999999999</v>
+      </c>
+      <c r="D45">
+        <v>3.9893000000000001</v>
+      </c>
+      <c r="E45">
+        <v>8.0949000000000009</v>
+      </c>
+      <c r="F45">
+        <v>15.957000000000001</v>
+      </c>
+      <c r="G45">
+        <v>24.957599999999999</v>
+      </c>
+      <c r="I45" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="1">
+        <v>10365</v>
+      </c>
+      <c r="K45" s="1">
+        <v>10916</v>
+      </c>
+      <c r="L45">
+        <f>J45+K45</f>
+        <v>21281</v>
+      </c>
+      <c r="M45">
+        <v>4.0934200000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="B46">
+        <v>1.9702999999999999</v>
+      </c>
+      <c r="C46">
+        <v>3.9889000000000001</v>
+      </c>
+      <c r="D46">
+        <v>3.9891000000000001</v>
+      </c>
+      <c r="E46">
+        <v>7.9831000000000003</v>
+      </c>
+      <c r="F46">
+        <v>14.023999999999999</v>
+      </c>
+      <c r="G46">
+        <v>27.924900000000001</v>
+      </c>
+      <c r="I46" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>17772</v>
+      </c>
+      <c r="K46" s="1">
+        <v>19260</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ref="L46:L48" si="7">J46+K46</f>
+        <v>37032</v>
+      </c>
+      <c r="M46">
+        <v>7.8831699999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="B47">
+        <v>1.9722</v>
+      </c>
+      <c r="C47">
+        <v>3.9893999999999998</v>
+      </c>
+      <c r="D47">
+        <v>3.9908999999999999</v>
+      </c>
+      <c r="E47">
+        <v>7.9476000000000004</v>
+      </c>
+      <c r="F47">
+        <v>15.956899999999999</v>
+      </c>
+      <c r="G47">
+        <v>25.9237</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="1">
+        <v>26098</v>
+      </c>
+      <c r="K47" s="1">
+        <v>29488</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="7"/>
+        <v>55586</v>
+      </c>
+      <c r="M47">
+        <v>15.07222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <f>SUM(B38:B47)/10</f>
+        <v>2.0870800000000003</v>
+      </c>
+      <c r="C48">
+        <f>SUM(C38:C47)/10</f>
+        <v>3.85608</v>
+      </c>
+      <c r="D48">
+        <f>SUM(D38:D47)/10</f>
+        <v>4.0934200000000001</v>
+      </c>
+      <c r="E48">
+        <f>SUM(E38:E47)/10</f>
+        <v>7.8831699999999998</v>
+      </c>
+      <c r="F48">
+        <f>SUM(F38:F47)/10</f>
+        <v>15.072219999999998</v>
+      </c>
+      <c r="G48">
+        <f>SUM(G38:G47)/10</f>
+        <v>26.095810000000007</v>
+      </c>
+      <c r="I48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="1">
+        <v>53621</v>
+      </c>
+      <c r="K48" s="1">
+        <v>59526</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="7"/>
+        <v>113147</v>
+      </c>
+      <c r="M48">
+        <v>26.09581</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="B54">
+        <v>19.959</v>
+      </c>
+      <c r="C54">
+        <v>114.732</v>
+      </c>
+      <c r="D54">
+        <v>30.884699999999999</v>
+      </c>
+      <c r="E54">
+        <v>96.261200000000002</v>
+      </c>
+      <c r="F54">
+        <v>3693.31</v>
+      </c>
+      <c r="G54">
+        <v>2478.59</v>
+      </c>
+      <c r="I54" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>10</v>
+      </c>
+      <c r="M54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="B55">
+        <v>28.923999999999999</v>
+      </c>
+      <c r="C55">
+        <v>84.806899999999999</v>
+      </c>
+      <c r="D55">
+        <v>24.933199999999999</v>
+      </c>
+      <c r="E55">
+        <v>286.90800000000002</v>
+      </c>
+      <c r="F55">
+        <v>3638.23</v>
+      </c>
+      <c r="G55">
+        <v>3857.6</v>
+      </c>
+      <c r="I55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="1">
+        <v>3964</v>
+      </c>
+      <c r="K55" s="1">
+        <v>4237</v>
+      </c>
+      <c r="L55">
+        <f t="shared" ref="L55:L56" si="8">J55+K55</f>
+        <v>8201</v>
+      </c>
+      <c r="M55">
+        <v>25.341719999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="B56">
+        <v>22.9391</v>
+      </c>
+      <c r="C56">
+        <v>103.42700000000001</v>
+      </c>
+      <c r="D56">
+        <v>19.947600000000001</v>
+      </c>
+      <c r="E56">
+        <v>101.904</v>
+      </c>
+      <c r="F56">
+        <v>3307.27</v>
+      </c>
+      <c r="G56">
+        <v>2505.56</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="1">
+        <v>7108</v>
+      </c>
+      <c r="K56" s="1">
+        <v>7938</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="8"/>
+        <v>15046</v>
+      </c>
+      <c r="M56">
+        <v>103.0466</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="B57">
+        <v>24.932400000000001</v>
+      </c>
+      <c r="C57">
+        <v>101.52800000000001</v>
+      </c>
+      <c r="D57">
+        <v>24.965800000000002</v>
+      </c>
+      <c r="E57">
+        <v>124.667</v>
+      </c>
+      <c r="F57">
+        <v>4043.88</v>
+      </c>
+      <c r="G57">
+        <v>3041.3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="1">
+        <v>10365</v>
+      </c>
+      <c r="K57" s="1">
+        <v>10916</v>
+      </c>
+      <c r="L57">
+        <f>J57+K57</f>
+        <v>21281</v>
+      </c>
+      <c r="M57">
+        <v>23.539459999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="B58">
+        <v>29.9541</v>
+      </c>
+      <c r="C58">
+        <v>110.739</v>
+      </c>
+      <c r="D58">
+        <v>16.966000000000001</v>
+      </c>
+      <c r="E58">
+        <v>87.535300000000007</v>
+      </c>
+      <c r="F58">
+        <v>4716.62</v>
+      </c>
+      <c r="G58">
+        <v>4224.71</v>
+      </c>
+      <c r="I58" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="1">
+        <v>17772</v>
+      </c>
+      <c r="K58" s="1">
+        <v>19260</v>
+      </c>
+      <c r="L58">
+        <f t="shared" ref="L58:L60" si="9">J58+K58</f>
+        <v>37032</v>
+      </c>
+      <c r="M58">
+        <v>139.45509999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59">
+        <f>SUM(B54:B58)/5</f>
+        <v>25.341719999999999</v>
+      </c>
+      <c r="C59">
+        <f>SUM(C54:C58)/5</f>
+        <v>103.04658000000002</v>
+      </c>
+      <c r="D59">
+        <f>SUM(D54:D58)/5</f>
+        <v>23.539460000000002</v>
+      </c>
+      <c r="E59">
+        <f>SUM(E54:E58)/5</f>
+        <v>139.45510000000002</v>
+      </c>
+      <c r="F59">
+        <f>SUM(F54:F58)/5</f>
+        <v>3879.8619999999996</v>
+      </c>
+      <c r="G59">
+        <f>SUM(G54:G58)/5</f>
+        <v>3221.5519999999997</v>
+      </c>
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="1">
+        <v>26098</v>
+      </c>
+      <c r="K59" s="1">
+        <v>29488</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="9"/>
+        <v>55586</v>
+      </c>
+      <c r="M59">
+        <v>3879.8620000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="I60" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="1">
+        <v>53621</v>
+      </c>
+      <c r="K60" s="1">
+        <v>59526</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="9"/>
+        <v>113147</v>
+      </c>
+      <c r="M60">
+        <v>3221.5520000000001</v>
       </c>
     </row>
   </sheetData>

--- a/dadosProjeto.xlsx
+++ b/dadosProjeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 ano\2 semestre\CAL\Projeto\feup-cal-proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E9193D-4EE6-4DB8-89DE-BAFB99B30043}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E27CA5-F3C0-4598-B47C-1902A13E8894}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2191EC9-5E49-4047-8E7F-8FB4B450290D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
   <si>
     <t>Nodes</t>
   </si>
@@ -113,12 +113,18 @@
   <si>
     <t>MSDijkstra</t>
   </si>
+  <si>
+    <t>A*</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +137,14 @@
       <color rgb="FFA9B7C6"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,12 +167,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2004,6 +2019,459 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Nearest Neighbor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$L$88:$L$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>98024.430968176399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192516.99997686752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>283876.46294730745</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>522792.53595200245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>815538.42754767986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1777597.1320562561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$M$88:$M$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>211.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F9B-4D17-9325-ED6663911BA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="630734303"/>
+        <c:axId val="846051215"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="630734303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>(|V|+|E|)*log(|V|)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="846051215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="846051215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Time(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="630734303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2164,6 +2632,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4228,20 +4736,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4268,16 +5292,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4304,16 +5328,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4340,16 +5364,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>483870</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>179070</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4369,6 +5393,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2CD0747-7858-454B-865C-6BF326D7C258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4674,10 +5734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6A995E-CD29-4310-804D-26025364E289}">
-  <dimension ref="A2:M60"/>
+  <dimension ref="A2:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4896,7 +5956,7 @@
         <v>6.9728000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -4914,7 +5974,7 @@
         <v>12.178000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:11">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -4932,7 +5992,7 @@
         <v>18.901299999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="B19" t="s">
         <v>3</v>
       </c>
@@ -4950,7 +6010,7 @@
         <v>41.7423</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -4961,11 +6021,11 @@
         <v>1874296</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E15:E20" si="5">C20+D20</f>
+        <f t="shared" ref="E20" si="5">C20+D20</f>
         <v>3677510</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -4990,7 +6050,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="B24">
         <v>4.9851000000000001</v>
       </c>
@@ -5010,7 +6070,7 @@
         <v>77.263000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="B25">
         <v>4.9859999999999998</v>
       </c>
@@ -5029,10 +6089,8 @@
       <c r="G25">
         <v>79.674499999999995</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="B26">
         <v>5.0115999999999996</v>
       </c>
@@ -5051,8 +6109,10 @@
       <c r="G26">
         <v>76.008700000000005</v>
       </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="B27">
         <v>4.9867999999999997</v>
       </c>
@@ -5071,8 +6131,10 @@
       <c r="G27">
         <v>74.773099999999999</v>
       </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="B28">
         <v>3.9893000000000001</v>
       </c>
@@ -5091,8 +6153,10 @@
       <c r="G28">
         <v>79.378600000000006</v>
       </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="B29">
         <v>4.9744000000000002</v>
       </c>
@@ -5111,8 +6175,10 @@
       <c r="G29">
         <v>77.791600000000003</v>
       </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="B30">
         <v>4.9558</v>
       </c>
@@ -5131,8 +6197,10 @@
       <c r="G30">
         <v>78.775099999999995</v>
       </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="B31">
         <v>4.9870999999999999</v>
       </c>
@@ -5151,8 +6219,10 @@
       <c r="G31">
         <v>80.784000000000006</v>
       </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11">
       <c r="B32">
         <v>4.9874999999999998</v>
       </c>
@@ -5197,27 +6267,27 @@
         <v>15</v>
       </c>
       <c r="B34">
-        <f>SUM(B24:B33)/10</f>
+        <f t="shared" ref="B34:G34" si="6">SUM(B24:B33)/10</f>
         <v>4.8850599999999993</v>
       </c>
       <c r="C34">
-        <f>SUM(C24:C33)/10</f>
+        <f t="shared" si="6"/>
         <v>8.6807499999999997</v>
       </c>
       <c r="D34">
-        <f>SUM(D24:D33)/10</f>
+        <f t="shared" si="6"/>
         <v>11.56696</v>
       </c>
       <c r="E34">
-        <f>SUM(E24:E33)/10</f>
+        <f t="shared" si="6"/>
         <v>22.4968</v>
       </c>
       <c r="F34">
-        <f>SUM(F24:F33)/10</f>
+        <f t="shared" si="6"/>
         <v>36.766949999999994</v>
       </c>
       <c r="G34">
-        <f>SUM(G24:G33)/10</f>
+        <f t="shared" si="6"/>
         <v>77.12269999999998</v>
       </c>
     </row>
@@ -5391,7 +6461,7 @@
         <v>4237</v>
       </c>
       <c r="L43">
-        <f t="shared" ref="L43:L44" si="6">J43+K43</f>
+        <f t="shared" ref="L43:L44" si="7">J43+K43</f>
         <v>8201</v>
       </c>
       <c r="M43">
@@ -5427,7 +6497,7 @@
         <v>7938</v>
       </c>
       <c r="L44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15046</v>
       </c>
       <c r="M44">
@@ -5499,7 +6569,7 @@
         <v>19260</v>
       </c>
       <c r="L46">
-        <f t="shared" ref="L46:L48" si="7">J46+K46</f>
+        <f t="shared" ref="L46:L48" si="8">J46+K46</f>
         <v>37032</v>
       </c>
       <c r="M46">
@@ -5535,7 +6605,7 @@
         <v>29488</v>
       </c>
       <c r="L47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>55586</v>
       </c>
       <c r="M47">
@@ -5547,27 +6617,27 @@
         <v>15</v>
       </c>
       <c r="B48">
-        <f>SUM(B38:B47)/10</f>
+        <f t="shared" ref="B48:G48" si="9">SUM(B38:B47)/10</f>
         <v>2.0870800000000003</v>
       </c>
       <c r="C48">
-        <f>SUM(C38:C47)/10</f>
+        <f t="shared" si="9"/>
         <v>3.85608</v>
       </c>
       <c r="D48">
-        <f>SUM(D38:D47)/10</f>
+        <f t="shared" si="9"/>
         <v>4.0934200000000001</v>
       </c>
       <c r="E48">
-        <f>SUM(E38:E47)/10</f>
+        <f t="shared" si="9"/>
         <v>7.8831699999999998</v>
       </c>
       <c r="F48">
-        <f>SUM(F38:F47)/10</f>
+        <f t="shared" si="9"/>
         <v>15.072219999999998</v>
       </c>
       <c r="G48">
-        <f>SUM(G38:G47)/10</f>
+        <f t="shared" si="9"/>
         <v>26.095810000000007</v>
       </c>
       <c r="I48" t="s">
@@ -5580,7 +6650,7 @@
         <v>59526</v>
       </c>
       <c r="L48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>113147</v>
       </c>
       <c r="M48">
@@ -5677,7 +6747,7 @@
         <v>4237</v>
       </c>
       <c r="L55">
-        <f t="shared" ref="L55:L56" si="8">J55+K55</f>
+        <f t="shared" ref="L55:L56" si="10">J55+K55</f>
         <v>8201</v>
       </c>
       <c r="M55">
@@ -5713,7 +6783,7 @@
         <v>7938</v>
       </c>
       <c r="L56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15046</v>
       </c>
       <c r="M56">
@@ -5785,7 +6855,7 @@
         <v>19260</v>
       </c>
       <c r="L58">
-        <f t="shared" ref="L58:L60" si="9">J58+K58</f>
+        <f t="shared" ref="L58:L60" si="11">J58+K58</f>
         <v>37032</v>
       </c>
       <c r="M58">
@@ -5797,27 +6867,27 @@
         <v>24</v>
       </c>
       <c r="B59">
-        <f>SUM(B54:B58)/5</f>
+        <f t="shared" ref="B59:G59" si="12">SUM(B54:B58)/5</f>
         <v>25.341719999999999</v>
       </c>
       <c r="C59">
-        <f>SUM(C54:C58)/5</f>
+        <f t="shared" si="12"/>
         <v>103.04658000000002</v>
       </c>
       <c r="D59">
-        <f>SUM(D54:D58)/5</f>
+        <f t="shared" si="12"/>
         <v>23.539460000000002</v>
       </c>
       <c r="E59">
-        <f>SUM(E54:E58)/5</f>
+        <f t="shared" si="12"/>
         <v>139.45510000000002</v>
       </c>
       <c r="F59">
-        <f>SUM(F54:F58)/5</f>
+        <f t="shared" si="12"/>
         <v>3879.8619999999996</v>
       </c>
       <c r="G59">
-        <f>SUM(G54:G58)/5</f>
+        <f t="shared" si="12"/>
         <v>3221.5519999999997</v>
       </c>
       <c r="I59" t="s">
@@ -5830,7 +6900,7 @@
         <v>29488</v>
       </c>
       <c r="L59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>55586</v>
       </c>
       <c r="M59">
@@ -5848,11 +6918,375 @@
         <v>59526</v>
       </c>
       <c r="L60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>113147</v>
       </c>
       <c r="M60">
         <v>3221.5520000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="F76">
+        <v>60</v>
+      </c>
+      <c r="G76">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="F77">
+        <v>60</v>
+      </c>
+      <c r="G77">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="F78">
+        <v>58</v>
+      </c>
+      <c r="G78">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="F79">
+        <v>61</v>
+      </c>
+      <c r="G79">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="F80">
+        <v>60</v>
+      </c>
+      <c r="G80">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ref="B81" si="13">SUM(B76:B80)/5</f>
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ref="C81" si="14">SUM(C76:C80)/5</f>
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ref="D81" si="15">SUM(D76:D80)/5</f>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ref="E81" si="16">SUM(E76:E80)/5</f>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ref="F81" si="17">SUM(F76:F80)/5</f>
+        <v>59.8</v>
+      </c>
+      <c r="G81">
+        <f t="shared" ref="G81" si="18">SUM(G76:G80)/5</f>
+        <v>175.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="B87">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>24</v>
+      </c>
+      <c r="D87">
+        <v>28</v>
+      </c>
+      <c r="E87">
+        <v>58</v>
+      </c>
+      <c r="F87">
+        <v>120</v>
+      </c>
+      <c r="G87">
+        <v>212</v>
+      </c>
+      <c r="I87" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87" t="s">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>10</v>
+      </c>
+      <c r="M87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="B88">
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>25</v>
+      </c>
+      <c r="D88">
+        <v>28</v>
+      </c>
+      <c r="E88">
+        <v>56</v>
+      </c>
+      <c r="F88">
+        <v>118</v>
+      </c>
+      <c r="G88">
+        <v>210</v>
+      </c>
+      <c r="I88" t="s">
+        <v>11</v>
+      </c>
+      <c r="J88" s="1">
+        <v>3964</v>
+      </c>
+      <c r="K88" s="1">
+        <v>4237</v>
+      </c>
+      <c r="L88">
+        <f>(J88+K88)*LOG(J88, 2)</f>
+        <v>98024.430968176399</v>
+      </c>
+      <c r="M88">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="B89">
+        <v>11</v>
+      </c>
+      <c r="C89">
+        <v>24</v>
+      </c>
+      <c r="D89">
+        <v>27</v>
+      </c>
+      <c r="E89">
+        <v>57</v>
+      </c>
+      <c r="F89">
+        <v>122</v>
+      </c>
+      <c r="G89">
+        <v>211</v>
+      </c>
+      <c r="I89" t="s">
+        <v>12</v>
+      </c>
+      <c r="J89" s="1">
+        <v>7108</v>
+      </c>
+      <c r="K89" s="1">
+        <v>7938</v>
+      </c>
+      <c r="L89">
+        <f t="shared" ref="L89:L93" si="19">(J89+K89)*LOG(J89, 2)</f>
+        <v>192516.99997686752</v>
+      </c>
+      <c r="M89">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="B90" s="3">
+        <v>14</v>
+      </c>
+      <c r="C90">
+        <v>26</v>
+      </c>
+      <c r="D90">
+        <v>29</v>
+      </c>
+      <c r="E90">
+        <v>56</v>
+      </c>
+      <c r="F90">
+        <v>124</v>
+      </c>
+      <c r="G90">
+        <v>210</v>
+      </c>
+      <c r="I90" t="s">
+        <v>6</v>
+      </c>
+      <c r="J90" s="1">
+        <v>10365</v>
+      </c>
+      <c r="K90" s="1">
+        <v>10916</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="19"/>
+        <v>283876.46294730745</v>
+      </c>
+      <c r="M90">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="B91">
+        <v>11</v>
+      </c>
+      <c r="C91">
+        <v>24</v>
+      </c>
+      <c r="D91">
+        <v>26</v>
+      </c>
+      <c r="E91">
+        <v>55</v>
+      </c>
+      <c r="F91">
+        <v>117</v>
+      </c>
+      <c r="G91">
+        <v>214</v>
+      </c>
+      <c r="I91" t="s">
+        <v>2</v>
+      </c>
+      <c r="J91" s="1">
+        <v>17772</v>
+      </c>
+      <c r="K91" s="1">
+        <v>19260</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="19"/>
+        <v>522792.53595200245</v>
+      </c>
+      <c r="M91">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ref="B92" si="20">SUM(B87:B91)/5</f>
+        <v>11.8</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ref="C92" si="21">SUM(C87:C91)/5</f>
+        <v>24.6</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ref="D92" si="22">SUM(D87:D91)/5</f>
+        <v>27.6</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ref="E92" si="23">SUM(E87:E91)/5</f>
+        <v>56.4</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ref="F92" si="24">SUM(F87:F91)/5</f>
+        <v>120.2</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ref="G92" si="25">SUM(G87:G91)/5</f>
+        <v>211.4</v>
+      </c>
+      <c r="I92" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="1">
+        <v>26098</v>
+      </c>
+      <c r="K92" s="1">
+        <v>29488</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="19"/>
+        <v>815538.42754767986</v>
+      </c>
+      <c r="M92">
+        <v>120.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="I93" t="s">
+        <v>3</v>
+      </c>
+      <c r="J93" s="1">
+        <v>53621</v>
+      </c>
+      <c r="K93" s="1">
+        <v>59526</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="19"/>
+        <v>1777597.1320562561</v>
+      </c>
+      <c r="M93">
+        <v>211.4</v>
       </c>
     </row>
   </sheetData>

--- a/dadosProjeto.xlsx
+++ b/dadosProjeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 ano\2 semestre\CAL\Projeto\feup-cal-proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E27CA5-F3C0-4598-B47C-1902A13E8894}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6491A6-5171-4AAE-B4A1-2C309F31A5AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2191EC9-5E49-4047-8E7F-8FB4B450290D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="29">
   <si>
     <t>Nodes</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>NN</t>
+  </si>
+  <si>
+    <t>Dijkstra:</t>
   </si>
 </sst>
 </file>
@@ -5736,8 +5739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6A995E-CD29-4310-804D-26025364E289}">
   <dimension ref="A2:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M78" sqref="M78"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6926,8 +6929,156 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="B67">
+        <v>19.959</v>
+      </c>
+      <c r="C67">
+        <v>114.732</v>
+      </c>
+      <c r="D67">
+        <v>30.884699999999999</v>
+      </c>
+      <c r="E67">
+        <v>96.261200000000002</v>
+      </c>
+      <c r="F67">
+        <v>3693.31</v>
+      </c>
+      <c r="G67">
+        <v>2478.59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="B68">
+        <v>28.923999999999999</v>
+      </c>
+      <c r="C68">
+        <v>84.806899999999999</v>
+      </c>
+      <c r="D68">
+        <v>24.933199999999999</v>
+      </c>
+      <c r="E68">
+        <v>286.90800000000002</v>
+      </c>
+      <c r="F68">
+        <v>3638.23</v>
+      </c>
+      <c r="G68">
+        <v>3857.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="B69">
+        <v>22.9391</v>
+      </c>
+      <c r="C69">
+        <v>103.42700000000001</v>
+      </c>
+      <c r="D69">
+        <v>19.947600000000001</v>
+      </c>
+      <c r="E69">
+        <v>101.904</v>
+      </c>
+      <c r="F69">
+        <v>3307.27</v>
+      </c>
+      <c r="G69">
+        <v>2505.56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="B70">
+        <v>24.932400000000001</v>
+      </c>
+      <c r="C70">
+        <v>101.52800000000001</v>
+      </c>
+      <c r="D70">
+        <v>24.965800000000002</v>
+      </c>
+      <c r="E70">
+        <v>124.667</v>
+      </c>
+      <c r="F70">
+        <v>4043.88</v>
+      </c>
+      <c r="G70">
+        <v>3041.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="B71">
+        <v>29.9541</v>
+      </c>
+      <c r="C71">
+        <v>110.739</v>
+      </c>
+      <c r="D71">
+        <v>16.966000000000001</v>
+      </c>
+      <c r="E71">
+        <v>87.535300000000007</v>
+      </c>
+      <c r="F71">
+        <v>4716.62</v>
+      </c>
+      <c r="G71">
+        <v>4224.71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ref="B72" si="13">SUM(B67:B71)/5</f>
+        <v>25.341719999999999</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ref="C72" si="14">SUM(C67:C71)/5</f>
+        <v>103.04658000000002</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ref="D72" si="15">SUM(D67:D71)/5</f>
+        <v>23.539460000000002</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ref="E72" si="16">SUM(E67:E71)/5</f>
+        <v>139.45510000000002</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72" si="17">SUM(F67:F71)/5</f>
+        <v>3879.8619999999996</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ref="G72" si="18">SUM(G67:G71)/5</f>
+        <v>3221.5519999999997</v>
+      </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
@@ -6997,27 +7148,27 @@
         <v>24</v>
       </c>
       <c r="B81">
-        <f t="shared" ref="B81" si="13">SUM(B76:B80)/5</f>
+        <f t="shared" ref="B81" si="19">SUM(B76:B80)/5</f>
         <v>0</v>
       </c>
       <c r="C81">
-        <f t="shared" ref="C81" si="14">SUM(C76:C80)/5</f>
+        <f t="shared" ref="C81" si="20">SUM(C76:C80)/5</f>
         <v>0</v>
       </c>
       <c r="D81">
-        <f t="shared" ref="D81" si="15">SUM(D76:D80)/5</f>
+        <f t="shared" ref="D81" si="21">SUM(D76:D80)/5</f>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" ref="E81" si="16">SUM(E76:E80)/5</f>
+        <f t="shared" ref="E81" si="22">SUM(E76:E80)/5</f>
         <v>0</v>
       </c>
       <c r="F81">
-        <f t="shared" ref="F81" si="17">SUM(F76:F80)/5</f>
+        <f t="shared" ref="F81" si="23">SUM(F76:F80)/5</f>
         <v>59.8</v>
       </c>
       <c r="G81">
-        <f t="shared" ref="G81" si="18">SUM(G76:G80)/5</f>
+        <f t="shared" ref="G81" si="24">SUM(G76:G80)/5</f>
         <v>175.2</v>
       </c>
     </row>
@@ -7147,7 +7298,7 @@
         <v>7938</v>
       </c>
       <c r="L89">
-        <f t="shared" ref="L89:L93" si="19">(J89+K89)*LOG(J89, 2)</f>
+        <f t="shared" ref="L89:L93" si="25">(J89+K89)*LOG(J89, 2)</f>
         <v>192516.99997686752</v>
       </c>
       <c r="M89">
@@ -7183,7 +7334,7 @@
         <v>10916</v>
       </c>
       <c r="L90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>283876.46294730745</v>
       </c>
       <c r="M90">
@@ -7219,7 +7370,7 @@
         <v>19260</v>
       </c>
       <c r="L91">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>522792.53595200245</v>
       </c>
       <c r="M91">
@@ -7231,27 +7382,27 @@
         <v>24</v>
       </c>
       <c r="B92">
-        <f t="shared" ref="B92" si="20">SUM(B87:B91)/5</f>
+        <f t="shared" ref="B92" si="26">SUM(B87:B91)/5</f>
         <v>11.8</v>
       </c>
       <c r="C92">
-        <f t="shared" ref="C92" si="21">SUM(C87:C91)/5</f>
+        <f t="shared" ref="C92" si="27">SUM(C87:C91)/5</f>
         <v>24.6</v>
       </c>
       <c r="D92">
-        <f t="shared" ref="D92" si="22">SUM(D87:D91)/5</f>
+        <f t="shared" ref="D92" si="28">SUM(D87:D91)/5</f>
         <v>27.6</v>
       </c>
       <c r="E92">
-        <f t="shared" ref="E92" si="23">SUM(E87:E91)/5</f>
+        <f t="shared" ref="E92" si="29">SUM(E87:E91)/5</f>
         <v>56.4</v>
       </c>
       <c r="F92">
-        <f t="shared" ref="F92" si="24">SUM(F87:F91)/5</f>
+        <f t="shared" ref="F92" si="30">SUM(F87:F91)/5</f>
         <v>120.2</v>
       </c>
       <c r="G92">
-        <f t="shared" ref="G92" si="25">SUM(G87:G91)/5</f>
+        <f t="shared" ref="G92" si="31">SUM(G87:G91)/5</f>
         <v>211.4</v>
       </c>
       <c r="I92" t="s">
@@ -7264,7 +7415,7 @@
         <v>29488</v>
       </c>
       <c r="L92">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>815538.42754767986</v>
       </c>
       <c r="M92">
@@ -7282,7 +7433,7 @@
         <v>59526</v>
       </c>
       <c r="L93">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1777597.1320562561</v>
       </c>
       <c r="M93">

--- a/dadosProjeto.xlsx
+++ b/dadosProjeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 ano\2 semestre\CAL\Projeto\feup-cal-proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6491A6-5171-4AAE-B4A1-2C309F31A5AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3353FF-EFCD-4660-9744-F9B56421E04F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2191EC9-5E49-4047-8E7F-8FB4B450290D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="31">
   <si>
     <t>Nodes</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Dijkstra:</t>
+  </si>
+  <si>
+    <t>Dijkstra</t>
+  </si>
+  <si>
+    <t>Astar</t>
   </si>
 </sst>
 </file>
@@ -687,6 +693,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42210319814475239"/>
+          <c:y val="1.1990407673860911E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -723,10 +737,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.301436557071587E-2"/>
-          <c:y val="9.9227771805277101E-2"/>
-          <c:w val="0.86486351706036746"/>
-          <c:h val="0.72088764946048411"/>
+          <c:x val="0.11155327544673355"/>
+          <c:y val="0.16517494665684776"/>
+          <c:w val="0.83061697767231157"/>
+          <c:h val="0.67892142978530556"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2475,6 +2489,922 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Dijkstra</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15436222646082284"/>
+          <c:y val="0.20238532110091745"/>
+          <c:w val="0.75260809790080585"/>
+          <c:h val="0.56884827469960753"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$L$67:$L$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>98024.430968176399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192516.99997686752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>283876.46294730745</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>522792.53595200245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>815538.42754767986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1777597.1320562561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$M$67:$M$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>133.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F3B6-4F3D-B782-1F00559552F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="531969247"/>
+        <c:axId val="531966751"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="531969247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>(|V|+|E|)*Log(|V|)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531966751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="531966751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Time(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531969247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Astar</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$L$77:$L$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>98024.430968176399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192516.99997686752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>283876.46294730745</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>522792.53595200245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>815538.42754767986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1777597.1320562561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$M$77:$M$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>196.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-950C-42D9-BE86-E2D293784382}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="534402879"/>
+        <c:axId val="534403711"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="534402879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>(|V|+|E|)*Log(|V|)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534403711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="534403711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Time(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534402879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2675,6 +3605,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5255,20 +6265,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5295,16 +7337,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5331,16 +7373,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5367,15 +7409,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>339090</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>34290</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5403,16 +7445,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5432,6 +7474,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD795741-4913-469E-A19E-0C9F95D71E9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C584EE-9F51-4DE8-84AB-98390DB2AB54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5739,8 +7853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6A995E-CD29-4310-804D-26025364E289}">
   <dimension ref="A2:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6928,7 +9042,12 @@
         <v>3221.5520000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="65" spans="1:13">
+      <c r="I65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -6950,137 +9069,248 @@
       <c r="G66" t="s">
         <v>20</v>
       </c>
+      <c r="I66" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" t="s">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:13">
       <c r="B67">
-        <v>19.959</v>
+        <v>9</v>
       </c>
       <c r="C67">
-        <v>114.732</v>
+        <v>15</v>
       </c>
       <c r="D67">
-        <v>30.884699999999999</v>
+        <v>17</v>
       </c>
       <c r="E67">
-        <v>96.261200000000002</v>
+        <v>34</v>
       </c>
       <c r="F67">
-        <v>3693.31</v>
+        <v>76</v>
       </c>
       <c r="G67">
-        <v>2478.59</v>
+        <v>137</v>
+      </c>
+      <c r="I67" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="1">
+        <v>3964</v>
+      </c>
+      <c r="K67" s="1">
+        <v>4237</v>
+      </c>
+      <c r="L67">
+        <f>(J67+K67)*LOG(J67, 2)</f>
+        <v>98024.430968176399</v>
+      </c>
+      <c r="M67">
+        <v>6.8</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:13">
       <c r="B68">
-        <v>28.923999999999999</v>
+        <v>5</v>
       </c>
       <c r="C68">
-        <v>84.806899999999999</v>
+        <v>14</v>
       </c>
       <c r="D68">
-        <v>24.933199999999999</v>
+        <v>18</v>
       </c>
       <c r="E68">
-        <v>286.90800000000002</v>
+        <v>35</v>
       </c>
       <c r="F68">
-        <v>3638.23</v>
+        <v>73</v>
       </c>
       <c r="G68">
-        <v>3857.6</v>
+        <v>133</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="1">
+        <v>7108</v>
+      </c>
+      <c r="K68" s="1">
+        <v>7938</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L72" si="13">(J68+K68)*LOG(J68, 2)</f>
+        <v>192516.99997686752</v>
+      </c>
+      <c r="M68">
+        <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:13">
       <c r="B69">
-        <v>22.9391</v>
+        <v>8</v>
       </c>
       <c r="C69">
-        <v>103.42700000000001</v>
+        <v>21</v>
       </c>
       <c r="D69">
-        <v>19.947600000000001</v>
+        <v>16</v>
       </c>
       <c r="E69">
-        <v>101.904</v>
+        <v>38</v>
       </c>
       <c r="F69">
-        <v>3307.27</v>
+        <v>78</v>
       </c>
       <c r="G69">
-        <v>2505.56</v>
+        <v>136</v>
+      </c>
+      <c r="I69" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" s="1">
+        <v>10365</v>
+      </c>
+      <c r="K69" s="1">
+        <v>10916</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="13"/>
+        <v>283876.46294730745</v>
+      </c>
+      <c r="M69">
+        <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:13">
       <c r="B70">
-        <v>24.932400000000001</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>101.52800000000001</v>
+        <v>17</v>
       </c>
       <c r="D70">
-        <v>24.965800000000002</v>
+        <v>16</v>
       </c>
       <c r="E70">
-        <v>124.667</v>
+        <v>37</v>
       </c>
       <c r="F70">
-        <v>4043.88</v>
+        <v>74</v>
       </c>
       <c r="G70">
-        <v>3041.3</v>
+        <v>130</v>
+      </c>
+      <c r="I70" t="s">
+        <v>2</v>
+      </c>
+      <c r="J70" s="1">
+        <v>17772</v>
+      </c>
+      <c r="K70" s="1">
+        <v>19260</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="13"/>
+        <v>522792.53595200245</v>
+      </c>
+      <c r="M70">
+        <v>35.6</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:13">
       <c r="B71">
-        <v>29.9541</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>110.739</v>
+        <v>16</v>
       </c>
       <c r="D71">
-        <v>16.966000000000001</v>
+        <v>16</v>
       </c>
       <c r="E71">
-        <v>87.535300000000007</v>
+        <v>34</v>
       </c>
       <c r="F71">
-        <v>4716.62</v>
+        <v>79</v>
       </c>
       <c r="G71">
-        <v>4224.71</v>
+        <v>132</v>
+      </c>
+      <c r="I71" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" s="1">
+        <v>26098</v>
+      </c>
+      <c r="K71" s="1">
+        <v>29488</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="13"/>
+        <v>815538.42754767986</v>
+      </c>
+      <c r="M71">
+        <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>24</v>
       </c>
       <c r="B72">
-        <f t="shared" ref="B72" si="13">SUM(B67:B71)/5</f>
-        <v>25.341719999999999</v>
+        <f t="shared" ref="B72" si="14">SUM(B67:B71)/5</f>
+        <v>6.8</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72" si="14">SUM(C67:C71)/5</f>
-        <v>103.04658000000002</v>
+        <f t="shared" ref="C72" si="15">SUM(C67:C71)/5</f>
+        <v>16.600000000000001</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72" si="15">SUM(D67:D71)/5</f>
-        <v>23.539460000000002</v>
+        <f t="shared" ref="D72" si="16">SUM(D67:D71)/5</f>
+        <v>16.600000000000001</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72" si="16">SUM(E67:E71)/5</f>
-        <v>139.45510000000002</v>
+        <f t="shared" ref="E72" si="17">SUM(E67:E71)/5</f>
+        <v>35.6</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72" si="17">SUM(F67:F71)/5</f>
-        <v>3879.8619999999996</v>
+        <f t="shared" ref="F72" si="18">SUM(F67:F71)/5</f>
+        <v>76</v>
       </c>
       <c r="G72">
-        <f t="shared" ref="G72" si="18">SUM(G67:G71)/5</f>
-        <v>3221.5519999999997</v>
+        <f t="shared" ref="G72" si="19">SUM(G67:G71)/5</f>
+        <v>133.6</v>
+      </c>
+      <c r="I72" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="1">
+        <v>53621</v>
+      </c>
+      <c r="K72" s="1">
+        <v>59526</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="13"/>
+        <v>1777597.1320562561</v>
+      </c>
+      <c r="M72">
+        <v>133.6</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -7102,45 +9332,187 @@
       <c r="G75" t="s">
         <v>20</v>
       </c>
+      <c r="I75" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:13">
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>16</v>
+      </c>
+      <c r="D76">
+        <v>19</v>
+      </c>
+      <c r="E76">
+        <v>33</v>
+      </c>
       <c r="F76">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G76">
-        <v>174</v>
+        <v>198</v>
+      </c>
+      <c r="I76" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" t="s">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>10</v>
+      </c>
+      <c r="M76" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:13">
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>17</v>
+      </c>
+      <c r="D77">
+        <v>18</v>
+      </c>
+      <c r="E77">
+        <v>33</v>
+      </c>
       <c r="F77">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G77">
-        <v>176</v>
+        <v>192</v>
+      </c>
+      <c r="I77" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" s="1">
+        <v>3964</v>
+      </c>
+      <c r="K77" s="1">
+        <v>4237</v>
+      </c>
+      <c r="L77">
+        <f>(J77+K77)*LOG(J77, 2)</f>
+        <v>98024.430968176399</v>
+      </c>
+      <c r="M77">
+        <v>6.6</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:13">
+      <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <v>16</v>
+      </c>
+      <c r="D78">
+        <v>19</v>
+      </c>
+      <c r="E78">
+        <v>32</v>
+      </c>
       <c r="F78">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G78">
-        <v>173</v>
+        <v>196</v>
+      </c>
+      <c r="I78" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="1">
+        <v>7108</v>
+      </c>
+      <c r="K78" s="1">
+        <v>7938</v>
+      </c>
+      <c r="L78">
+        <f t="shared" ref="L78:L82" si="20">(J78+K78)*LOG(J78, 2)</f>
+        <v>192516.99997686752</v>
+      </c>
+      <c r="M78">
+        <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:13">
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>16</v>
+      </c>
+      <c r="D79">
+        <v>20</v>
+      </c>
+      <c r="E79">
+        <v>32</v>
+      </c>
       <c r="F79">
         <v>61</v>
       </c>
       <c r="G79">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="I79" t="s">
+        <v>6</v>
+      </c>
+      <c r="J79" s="1">
+        <v>10365</v>
+      </c>
+      <c r="K79" s="1">
+        <v>10916</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="20"/>
+        <v>283876.46294730745</v>
+      </c>
+      <c r="M79">
+        <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:13">
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <v>19</v>
+      </c>
+      <c r="E80">
+        <v>33</v>
+      </c>
       <c r="F80">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G80">
-        <v>177</v>
+        <v>196</v>
+      </c>
+      <c r="I80" t="s">
+        <v>2</v>
+      </c>
+      <c r="J80" s="1">
+        <v>17772</v>
+      </c>
+      <c r="K80" s="1">
+        <v>19260</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="20"/>
+        <v>522792.53595200245</v>
+      </c>
+      <c r="M80">
+        <v>32.6</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -7148,28 +9520,62 @@
         <v>24</v>
       </c>
       <c r="B81">
-        <f t="shared" ref="B81" si="19">SUM(B76:B80)/5</f>
-        <v>0</v>
+        <f t="shared" ref="B81" si="21">SUM(B76:B80)/5</f>
+        <v>6.6</v>
       </c>
       <c r="C81">
-        <f t="shared" ref="C81" si="20">SUM(C76:C80)/5</f>
-        <v>0</v>
+        <f>SUM(C76:C80)/5</f>
+        <v>16</v>
       </c>
       <c r="D81">
-        <f t="shared" ref="D81" si="21">SUM(D76:D80)/5</f>
-        <v>0</v>
+        <f>SUM(D76:D80)/5</f>
+        <v>19</v>
       </c>
       <c r="E81">
         <f t="shared" ref="E81" si="22">SUM(E76:E80)/5</f>
-        <v>0</v>
+        <v>32.6</v>
       </c>
       <c r="F81">
         <f t="shared" ref="F81" si="23">SUM(F76:F80)/5</f>
-        <v>59.8</v>
+        <v>63.8</v>
       </c>
       <c r="G81">
         <f t="shared" ref="G81" si="24">SUM(G76:G80)/5</f>
-        <v>175.2</v>
+        <v>196.8</v>
+      </c>
+      <c r="I81" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="1">
+        <v>26098</v>
+      </c>
+      <c r="K81" s="1">
+        <v>29488</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="20"/>
+        <v>815538.42754767986</v>
+      </c>
+      <c r="M81">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="I82" t="s">
+        <v>3</v>
+      </c>
+      <c r="J82" s="1">
+        <v>53621</v>
+      </c>
+      <c r="K82" s="1">
+        <v>59526</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="20"/>
+        <v>1777597.1320562561</v>
+      </c>
+      <c r="M82">
+        <v>196.8</v>
       </c>
     </row>
     <row r="86" spans="1:13">

--- a/dadosProjeto.xlsx
+++ b/dadosProjeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 ano\2 semestre\CAL\Projeto\feup-cal-proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3353FF-EFCD-4660-9744-F9B56421E04F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D41E692-AB98-4993-961E-BCB0AC48FA03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2191EC9-5E49-4047-8E7F-8FB4B450290D}"/>
   </bookViews>
@@ -2252,7 +2252,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>(|V|+|E|)*log(|V|)</a:t>
+                  <a:t>|POI|*((|V|+|E|)*log(|V|))</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7853,8 +7853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6A995E-CD29-4310-804D-26025364E289}">
   <dimension ref="A2:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W94" sqref="W94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/dadosProjeto.xlsx
+++ b/dadosProjeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 ano\2 semestre\CAL\Projeto\feup-cal-proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D41E692-AB98-4993-961E-BCB0AC48FA03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7251ADB-F20D-440C-ACBC-0EC4E0B6613D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2191EC9-5E49-4047-8E7F-8FB4B450290D}"/>
   </bookViews>
@@ -1692,22 +1692,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8201</c:v>
+                  <c:v>98024.430968176399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15046</c:v>
+                  <c:v>192516.99997686752</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21281</c:v>
+                  <c:v>283876.46294730745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37032</c:v>
+                  <c:v>522792.53595200245</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55586</c:v>
+                  <c:v>815538.42754767986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113147</c:v>
+                  <c:v>1777597.1320562561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1719,22 +1719,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>25.341719999999999</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>103.0466</c:v>
+                  <c:v>14.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.539459999999998</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139.45509999999999</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3879.8620000000001</c:v>
+                  <c:v>64.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3221.5520000000001</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1799,7 +1799,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>|V|+|E|</a:t>
+                  <a:t>(|V|+|E|)*Log(|V|)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7853,8 +7853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6A995E-CD29-4310-804D-26025364E289}">
   <dimension ref="A2:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W94" sqref="W94"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V59" sqref="V59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8802,22 +8802,22 @@
     </row>
     <row r="54" spans="1:13">
       <c r="B54">
-        <v>19.959</v>
+        <v>7</v>
       </c>
       <c r="C54">
-        <v>114.732</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>30.884699999999999</v>
+        <v>17</v>
       </c>
       <c r="E54">
-        <v>96.261200000000002</v>
+        <v>27</v>
       </c>
       <c r="F54">
-        <v>3693.31</v>
+        <v>64</v>
       </c>
       <c r="G54">
-        <v>2478.59</v>
+        <v>110</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
@@ -8837,22 +8837,22 @@
     </row>
     <row r="55" spans="1:13">
       <c r="B55">
-        <v>28.923999999999999</v>
+        <v>7</v>
       </c>
       <c r="C55">
-        <v>84.806899999999999</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>24.933199999999999</v>
+        <v>17</v>
       </c>
       <c r="E55">
-        <v>286.90800000000002</v>
+        <v>28</v>
       </c>
       <c r="F55">
-        <v>3638.23</v>
+        <v>64</v>
       </c>
       <c r="G55">
-        <v>3857.6</v>
+        <v>109</v>
       </c>
       <c r="I55" t="s">
         <v>11</v>
@@ -8864,31 +8864,31 @@
         <v>4237</v>
       </c>
       <c r="L55">
-        <f t="shared" ref="L55:L56" si="10">J55+K55</f>
-        <v>8201</v>
+        <f>(J55+K55)*LOG(J55, 2)</f>
+        <v>98024.430968176399</v>
       </c>
       <c r="M55">
-        <v>25.341719999999999</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="B56">
-        <v>22.9391</v>
+        <v>7</v>
       </c>
       <c r="C56">
-        <v>103.42700000000001</v>
+        <v>14</v>
       </c>
       <c r="D56">
-        <v>19.947600000000001</v>
+        <v>16</v>
       </c>
       <c r="E56">
-        <v>101.904</v>
+        <v>30</v>
       </c>
       <c r="F56">
-        <v>3307.27</v>
+        <v>65</v>
       </c>
       <c r="G56">
-        <v>2505.56</v>
+        <v>110</v>
       </c>
       <c r="I56" t="s">
         <v>12</v>
@@ -8900,31 +8900,31 @@
         <v>7938</v>
       </c>
       <c r="L56">
-        <f t="shared" si="10"/>
-        <v>15046</v>
+        <f t="shared" ref="L56:L60" si="10">(J56+K56)*LOG(J56, 2)</f>
+        <v>192516.99997686752</v>
       </c>
       <c r="M56">
-        <v>103.0466</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="B57">
-        <v>24.932400000000001</v>
+        <v>8</v>
       </c>
       <c r="C57">
-        <v>101.52800000000001</v>
+        <v>14</v>
       </c>
       <c r="D57">
-        <v>24.965800000000002</v>
+        <v>16</v>
       </c>
       <c r="E57">
-        <v>124.667</v>
+        <v>27</v>
       </c>
       <c r="F57">
-        <v>4043.88</v>
+        <v>65</v>
       </c>
       <c r="G57">
-        <v>3041.3</v>
+        <v>109</v>
       </c>
       <c r="I57" t="s">
         <v>6</v>
@@ -8936,31 +8936,31 @@
         <v>10916</v>
       </c>
       <c r="L57">
-        <f>J57+K57</f>
-        <v>21281</v>
+        <f t="shared" si="10"/>
+        <v>283876.46294730745</v>
       </c>
       <c r="M57">
-        <v>23.539459999999998</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="B58">
-        <v>29.9541</v>
+        <v>7</v>
       </c>
       <c r="C58">
-        <v>110.739</v>
+        <v>14</v>
       </c>
       <c r="D58">
-        <v>16.966000000000001</v>
+        <v>18</v>
       </c>
       <c r="E58">
-        <v>87.535300000000007</v>
+        <v>28</v>
       </c>
       <c r="F58">
-        <v>4716.62</v>
+        <v>64</v>
       </c>
       <c r="G58">
-        <v>4224.71</v>
+        <v>112</v>
       </c>
       <c r="I58" t="s">
         <v>2</v>
@@ -8972,11 +8972,11 @@
         <v>19260</v>
       </c>
       <c r="L58">
-        <f t="shared" ref="L58:L60" si="11">J58+K58</f>
-        <v>37032</v>
+        <f t="shared" si="10"/>
+        <v>522792.53595200245</v>
       </c>
       <c r="M58">
-        <v>139.45509999999999</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -8984,28 +8984,28 @@
         <v>24</v>
       </c>
       <c r="B59">
-        <f t="shared" ref="B59:G59" si="12">SUM(B54:B58)/5</f>
-        <v>25.341719999999999</v>
+        <f t="shared" ref="B59:G59" si="11">SUM(B54:B58)/5</f>
+        <v>7.2</v>
       </c>
       <c r="C59">
-        <f t="shared" si="12"/>
-        <v>103.04658000000002</v>
+        <f t="shared" si="11"/>
+        <v>14.6</v>
       </c>
       <c r="D59">
-        <f t="shared" si="12"/>
-        <v>23.539460000000002</v>
+        <f t="shared" si="11"/>
+        <v>16.8</v>
       </c>
       <c r="E59">
-        <f t="shared" si="12"/>
-        <v>139.45510000000002</v>
+        <f t="shared" si="11"/>
+        <v>28</v>
       </c>
       <c r="F59">
-        <f t="shared" si="12"/>
-        <v>3879.8619999999996</v>
+        <f t="shared" si="11"/>
+        <v>64.400000000000006</v>
       </c>
       <c r="G59">
-        <f t="shared" si="12"/>
-        <v>3221.5519999999997</v>
+        <f t="shared" si="11"/>
+        <v>110</v>
       </c>
       <c r="I59" t="s">
         <v>13</v>
@@ -9017,11 +9017,11 @@
         <v>29488</v>
       </c>
       <c r="L59">
-        <f t="shared" si="11"/>
-        <v>55586</v>
+        <f t="shared" si="10"/>
+        <v>815538.42754767986</v>
       </c>
       <c r="M59">
-        <v>3879.8620000000001</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -9035,11 +9035,11 @@
         <v>59526</v>
       </c>
       <c r="L60">
-        <f t="shared" si="11"/>
-        <v>113147</v>
+        <f t="shared" si="10"/>
+        <v>1777597.1320562561</v>
       </c>
       <c r="M60">
-        <v>3221.5520000000001</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -9150,7 +9150,7 @@
         <v>7938</v>
       </c>
       <c r="L68">
-        <f t="shared" ref="L68:L72" si="13">(J68+K68)*LOG(J68, 2)</f>
+        <f t="shared" ref="L68:L72" si="12">(J68+K68)*LOG(J68, 2)</f>
         <v>192516.99997686752</v>
       </c>
       <c r="M68">
@@ -9186,7 +9186,7 @@
         <v>10916</v>
       </c>
       <c r="L69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>283876.46294730745</v>
       </c>
       <c r="M69">
@@ -9222,7 +9222,7 @@
         <v>19260</v>
       </c>
       <c r="L70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>522792.53595200245</v>
       </c>
       <c r="M70">
@@ -9258,7 +9258,7 @@
         <v>29488</v>
       </c>
       <c r="L71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>815538.42754767986</v>
       </c>
       <c r="M71">
@@ -9270,27 +9270,27 @@
         <v>24</v>
       </c>
       <c r="B72">
-        <f t="shared" ref="B72" si="14">SUM(B67:B71)/5</f>
+        <f t="shared" ref="B72" si="13">SUM(B67:B71)/5</f>
         <v>6.8</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72" si="15">SUM(C67:C71)/5</f>
+        <f t="shared" ref="C72" si="14">SUM(C67:C71)/5</f>
         <v>16.600000000000001</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72" si="16">SUM(D67:D71)/5</f>
+        <f t="shared" ref="D72" si="15">SUM(D67:D71)/5</f>
         <v>16.600000000000001</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72" si="17">SUM(E67:E71)/5</f>
+        <f t="shared" ref="E72" si="16">SUM(E67:E71)/5</f>
         <v>35.6</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72" si="18">SUM(F67:F71)/5</f>
+        <f t="shared" ref="F72" si="17">SUM(F67:F71)/5</f>
         <v>76</v>
       </c>
       <c r="G72">
-        <f t="shared" ref="G72" si="19">SUM(G67:G71)/5</f>
+        <f t="shared" ref="G72" si="18">SUM(G67:G71)/5</f>
         <v>133.6</v>
       </c>
       <c r="I72" t="s">
@@ -9303,7 +9303,7 @@
         <v>59526</v>
       </c>
       <c r="L72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1777597.1320562561</v>
       </c>
       <c r="M72">
@@ -9436,7 +9436,7 @@
         <v>7938</v>
       </c>
       <c r="L78">
-        <f t="shared" ref="L78:L82" si="20">(J78+K78)*LOG(J78, 2)</f>
+        <f t="shared" ref="L78:L82" si="19">(J78+K78)*LOG(J78, 2)</f>
         <v>192516.99997686752</v>
       </c>
       <c r="M78">
@@ -9472,7 +9472,7 @@
         <v>10916</v>
       </c>
       <c r="L79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>283876.46294730745</v>
       </c>
       <c r="M79">
@@ -9508,7 +9508,7 @@
         <v>19260</v>
       </c>
       <c r="L80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>522792.53595200245</v>
       </c>
       <c r="M80">
@@ -9520,7 +9520,7 @@
         <v>24</v>
       </c>
       <c r="B81">
-        <f t="shared" ref="B81" si="21">SUM(B76:B80)/5</f>
+        <f t="shared" ref="B81" si="20">SUM(B76:B80)/5</f>
         <v>6.6</v>
       </c>
       <c r="C81">
@@ -9532,15 +9532,15 @@
         <v>19</v>
       </c>
       <c r="E81">
-        <f t="shared" ref="E81" si="22">SUM(E76:E80)/5</f>
+        <f t="shared" ref="E81" si="21">SUM(E76:E80)/5</f>
         <v>32.6</v>
       </c>
       <c r="F81">
-        <f t="shared" ref="F81" si="23">SUM(F76:F80)/5</f>
+        <f t="shared" ref="F81" si="22">SUM(F76:F80)/5</f>
         <v>63.8</v>
       </c>
       <c r="G81">
-        <f t="shared" ref="G81" si="24">SUM(G76:G80)/5</f>
+        <f t="shared" ref="G81" si="23">SUM(G76:G80)/5</f>
         <v>196.8</v>
       </c>
       <c r="I81" t="s">
@@ -9553,7 +9553,7 @@
         <v>29488</v>
       </c>
       <c r="L81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>815538.42754767986</v>
       </c>
       <c r="M81">
@@ -9571,7 +9571,7 @@
         <v>59526</v>
       </c>
       <c r="L82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1777597.1320562561</v>
       </c>
       <c r="M82">
@@ -9704,7 +9704,7 @@
         <v>7938</v>
       </c>
       <c r="L89">
-        <f t="shared" ref="L89:L93" si="25">(J89+K89)*LOG(J89, 2)</f>
+        <f t="shared" ref="L89:L93" si="24">(J89+K89)*LOG(J89, 2)</f>
         <v>192516.99997686752</v>
       </c>
       <c r="M89">
@@ -9740,7 +9740,7 @@
         <v>10916</v>
       </c>
       <c r="L90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>283876.46294730745</v>
       </c>
       <c r="M90">
@@ -9776,7 +9776,7 @@
         <v>19260</v>
       </c>
       <c r="L91">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>522792.53595200245</v>
       </c>
       <c r="M91">
@@ -9788,27 +9788,27 @@
         <v>24</v>
       </c>
       <c r="B92">
-        <f t="shared" ref="B92" si="26">SUM(B87:B91)/5</f>
+        <f t="shared" ref="B92" si="25">SUM(B87:B91)/5</f>
         <v>11.8</v>
       </c>
       <c r="C92">
-        <f t="shared" ref="C92" si="27">SUM(C87:C91)/5</f>
+        <f t="shared" ref="C92" si="26">SUM(C87:C91)/5</f>
         <v>24.6</v>
       </c>
       <c r="D92">
-        <f t="shared" ref="D92" si="28">SUM(D87:D91)/5</f>
+        <f t="shared" ref="D92" si="27">SUM(D87:D91)/5</f>
         <v>27.6</v>
       </c>
       <c r="E92">
-        <f t="shared" ref="E92" si="29">SUM(E87:E91)/5</f>
+        <f t="shared" ref="E92" si="28">SUM(E87:E91)/5</f>
         <v>56.4</v>
       </c>
       <c r="F92">
-        <f t="shared" ref="F92" si="30">SUM(F87:F91)/5</f>
+        <f t="shared" ref="F92" si="29">SUM(F87:F91)/5</f>
         <v>120.2</v>
       </c>
       <c r="G92">
-        <f t="shared" ref="G92" si="31">SUM(G87:G91)/5</f>
+        <f t="shared" ref="G92" si="30">SUM(G87:G91)/5</f>
         <v>211.4</v>
       </c>
       <c r="I92" t="s">
@@ -9821,7 +9821,7 @@
         <v>29488</v>
       </c>
       <c r="L92">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>815538.42754767986</v>
       </c>
       <c r="M92">
@@ -9839,7 +9839,7 @@
         <v>59526</v>
       </c>
       <c r="L93">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1777597.1320562561</v>
       </c>
       <c r="M93">

--- a/dadosProjeto.xlsx
+++ b/dadosProjeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 ano\2 semestre\CAL\Projeto\feup-cal-proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7251ADB-F20D-440C-ACBC-0EC4E0B6613D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9569EB7-C427-4861-8AD8-F1CAEE632D79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2191EC9-5E49-4047-8E7F-8FB4B450290D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="32">
   <si>
     <t>Nodes</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Astar</t>
+  </si>
+  <si>
+    <t>MDVRP</t>
   </si>
 </sst>
 </file>
@@ -3405,6 +3408,459 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>MDVRP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$L$103:$L$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>98024.430968176399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192516.99997686752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>283876.46294730745</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>522792.53595200245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>815538.42754767986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1777597.1320562561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$M$103:$M$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>349.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>438.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>790.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>907.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1255.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3097.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67A5-4F9C-81C8-EF3D7C4F9EE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="607551663"/>
+        <c:axId val="607552079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="607551663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>(|V|+|E|)*log(|V|)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607552079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="607552079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Time(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="607551663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3685,6 +4141,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6782,6 +7278,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7551,6 +8563,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{432A3C15-EE14-441C-9F96-736B2672C05E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7851,10 +8899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6A995E-CD29-4310-804D-26025364E289}">
-  <dimension ref="A2:M93"/>
+  <dimension ref="A2:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V59" sqref="V59"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W106" sqref="W106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9846,6 +10894,274 @@
         <v>211.4</v>
       </c>
     </row>
+    <row r="101" spans="1:13">
+      <c r="A101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="B102">
+        <v>354</v>
+      </c>
+      <c r="C102">
+        <v>443</v>
+      </c>
+      <c r="D102">
+        <v>789</v>
+      </c>
+      <c r="E102">
+        <v>907</v>
+      </c>
+      <c r="F102">
+        <v>1238</v>
+      </c>
+      <c r="G102">
+        <v>3061</v>
+      </c>
+      <c r="I102" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" t="s">
+        <v>0</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1</v>
+      </c>
+      <c r="L102" t="s">
+        <v>10</v>
+      </c>
+      <c r="M102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="B103">
+        <v>343</v>
+      </c>
+      <c r="C103">
+        <v>437</v>
+      </c>
+      <c r="D103">
+        <v>791</v>
+      </c>
+      <c r="E103">
+        <v>907</v>
+      </c>
+      <c r="F103">
+        <v>1225</v>
+      </c>
+      <c r="G103">
+        <v>3109</v>
+      </c>
+      <c r="I103" t="s">
+        <v>11</v>
+      </c>
+      <c r="J103" s="1">
+        <v>3964</v>
+      </c>
+      <c r="K103" s="1">
+        <v>4237</v>
+      </c>
+      <c r="L103">
+        <f>(J103+K103)*LOG(J103, 2)</f>
+        <v>98024.430968176399</v>
+      </c>
+      <c r="M103">
+        <v>349.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="B104">
+        <v>344</v>
+      </c>
+      <c r="C104">
+        <v>439</v>
+      </c>
+      <c r="D104">
+        <v>791</v>
+      </c>
+      <c r="E104">
+        <v>907</v>
+      </c>
+      <c r="F104">
+        <v>1292</v>
+      </c>
+      <c r="G104">
+        <v>3127</v>
+      </c>
+      <c r="I104" t="s">
+        <v>12</v>
+      </c>
+      <c r="J104" s="1">
+        <v>7108</v>
+      </c>
+      <c r="K104" s="1">
+        <v>7938</v>
+      </c>
+      <c r="L104">
+        <f t="shared" ref="L104:L108" si="31">(J104+K104)*LOG(J104, 2)</f>
+        <v>192516.99997686752</v>
+      </c>
+      <c r="M104">
+        <v>438.8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="B105" s="3">
+        <v>348</v>
+      </c>
+      <c r="C105">
+        <v>438</v>
+      </c>
+      <c r="D105">
+        <v>790</v>
+      </c>
+      <c r="E105">
+        <v>906</v>
+      </c>
+      <c r="F105">
+        <v>1258</v>
+      </c>
+      <c r="G105">
+        <v>3054</v>
+      </c>
+      <c r="I105" t="s">
+        <v>6</v>
+      </c>
+      <c r="J105" s="1">
+        <v>10365</v>
+      </c>
+      <c r="K105" s="1">
+        <v>10916</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="31"/>
+        <v>283876.46294730745</v>
+      </c>
+      <c r="M105">
+        <v>790.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="B106">
+        <v>359</v>
+      </c>
+      <c r="C106">
+        <v>437</v>
+      </c>
+      <c r="D106">
+        <v>793</v>
+      </c>
+      <c r="E106">
+        <v>912</v>
+      </c>
+      <c r="F106">
+        <v>1264</v>
+      </c>
+      <c r="G106">
+        <v>3135</v>
+      </c>
+      <c r="I106" t="s">
+        <v>2</v>
+      </c>
+      <c r="J106" s="1">
+        <v>17772</v>
+      </c>
+      <c r="K106" s="1">
+        <v>19260</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="31"/>
+        <v>522792.53595200245</v>
+      </c>
+      <c r="M106">
+        <v>907.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ref="B107" si="32">SUM(B102:B106)/5</f>
+        <v>349.6</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ref="C107" si="33">SUM(C102:C106)/5</f>
+        <v>438.8</v>
+      </c>
+      <c r="D107">
+        <f t="shared" ref="D107:G107" si="34">SUM(D102:D106)/5</f>
+        <v>790.8</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="34"/>
+        <v>907.8</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="34"/>
+        <v>1255.4000000000001</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="34"/>
+        <v>3097.2</v>
+      </c>
+      <c r="I107" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107" s="1">
+        <v>26098</v>
+      </c>
+      <c r="K107" s="1">
+        <v>29488</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="31"/>
+        <v>815538.42754767986</v>
+      </c>
+      <c r="M107">
+        <v>1255.4000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="I108" t="s">
+        <v>3</v>
+      </c>
+      <c r="J108" s="1">
+        <v>53621</v>
+      </c>
+      <c r="K108" s="1">
+        <v>59526</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="31"/>
+        <v>1777597.1320562561</v>
+      </c>
+      <c r="M108">
+        <v>3097.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/dadosProjeto.xlsx
+++ b/dadosProjeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 ano\2 semestre\CAL\Projeto\feup-cal-proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9569EB7-C427-4861-8AD8-F1CAEE632D79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30C2A50-D073-4667-824F-ECFCF75F4124}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2191EC9-5E49-4047-8E7F-8FB4B450290D}"/>
   </bookViews>
@@ -3624,7 +3624,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>(|V|+|E|)*log(|V|)</a:t>
+                  <a:t>|POI|*(|V|+|E|)*log(|V|)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8901,8 +8901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6A995E-CD29-4310-804D-26025364E289}">
   <dimension ref="A2:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W106" sqref="W106"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10917,7 +10917,7 @@
         <v>20</v>
       </c>
       <c r="I101" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:13">

--- a/dadosProjeto.xlsx
+++ b/dadosProjeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 ano\2 semestre\CAL\Projeto\feup-cal-proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30C2A50-D073-4667-824F-ECFCF75F4124}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4173B4EC-E86A-4402-8254-C124DF9A7F88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E2191EC9-5E49-4047-8E7F-8FB4B450290D}"/>
   </bookViews>
@@ -3624,7 +3624,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>|POI|*(|V|+|E|)*log(|V|)</a:t>
+                  <a:t>log|POI|*|POI|*(|V|+|E|)*log|V|</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8902,7 +8902,7 @@
   <dimension ref="A2:M108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M110" sqref="M110"/>
+      <selection activeCell="W103" sqref="W103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
